--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\landeregg\Documents\Schule\Semesterarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\landeregg\Documents\Schule\Semesterarbeit\Projektverwaltung\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,22 +279,56 @@
     </fill>
     <fill>
       <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor theme="5" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF1FE9E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightUp">
-        <bgColor rgb="FF1FE9E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <bgColor rgb="FF7030A0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <bgColor theme="5"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -333,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,17 +419,67 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -411,63 +495,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -763,7 +802,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,127 +814,127 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="38"/>
-      <c r="M3" s="1" t="s">
+      <c r="D3" s="32"/>
+      <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="49" t="s">
+      <c r="AG4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="41" t="s">
+      <c r="M5" s="46"/>
+      <c r="N5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="52" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="52" t="s">
+      <c r="R5" s="40"/>
+      <c r="S5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="51"/>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="40"/>
+      <c r="U5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="48" t="s">
+      <c r="V5" s="46"/>
+      <c r="W5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="52" t="s">
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="52" t="s">
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="45" t="s">
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="53" t="s">
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="50" t="s">
+      <c r="AG5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="45" t="s">
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="40" t="s">
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -909,7 +948,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="41"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -918,7 +957,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="48"/>
+      <c r="W6" s="49"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -927,15 +966,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="53"/>
+      <c r="AF6" s="51"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="40"/>
+      <c r="AK6" s="52"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="56"/>
+      <c r="D7" s="41"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -943,19 +982,21 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="41"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="53"/>
+      <c r="P7" s="66"/>
       <c r="R7" s="11"/>
-      <c r="W7" s="48"/>
+      <c r="W7" s="49"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="53"/>
+      <c r="AF7" s="51"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="40"/>
+      <c r="AK7" s="52"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -966,22 +1007,20 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="W8" s="48"/>
+      <c r="W8" s="49"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="53"/>
+      <c r="AF8" s="51"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="40"/>
+      <c r="AK8" s="52"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="57"/>
+      <c r="D9" s="42"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -989,17 +1028,19 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
-      <c r="L9" s="39"/>
-      <c r="N9" s="41"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="53"/>
+      <c r="P9" s="60"/>
       <c r="R9" s="11"/>
-      <c r="W9" s="48"/>
+      <c r="W9" s="49"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="53"/>
+      <c r="AF9" s="51"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="40"/>
+      <c r="AK9" s="52"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1009,7 +1050,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="41"/>
+      <c r="N10" s="53"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
@@ -1017,19 +1058,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="48"/>
+      <c r="W10" s="49"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="53"/>
+      <c r="AF10" s="51"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="40"/>
+      <c r="AK10" s="52"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="58"/>
+      <c r="D11" s="43"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1037,16 +1078,17 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="41"/>
+      <c r="N11" s="53"/>
+      <c r="Q11" s="57"/>
       <c r="R11" s="11"/>
-      <c r="W11" s="48"/>
+      <c r="W11" s="49"/>
       <c r="AA11" s="11"/>
-      <c r="AF11" s="53"/>
+      <c r="AF11" s="51"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="40"/>
+      <c r="AK11" s="52"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1056,12 +1098,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="41"/>
+      <c r="N12" s="53"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="48"/>
+      <c r="W12" s="49"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
@@ -1070,13 +1112,13 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="53"/>
+      <c r="AF12" s="51"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="40"/>
+      <c r="AK12" s="52"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="54"/>
+      <c r="D13" s="44"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1084,16 +1126,17 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="41"/>
+      <c r="N13" s="53"/>
+      <c r="Q13" s="59"/>
       <c r="R13" s="11"/>
-      <c r="W13" s="48"/>
+      <c r="W13" s="49"/>
       <c r="AA13" s="11"/>
-      <c r="AF13" s="53"/>
+      <c r="AF13" s="51"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="40"/>
+      <c r="AK13" s="52"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1103,24 +1146,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="41"/>
+      <c r="N14" s="53"/>
       <c r="P14" s="25"/>
       <c r="R14" s="11"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="48"/>
+      <c r="W14" s="49"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
       <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="53"/>
+      <c r="AF14" s="51"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="40"/>
+      <c r="AK14" s="52"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="59"/>
+      <c r="D15" s="33"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1128,16 +1171,17 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="41"/>
+      <c r="N15" s="53"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="11"/>
-      <c r="W15" s="48"/>
+      <c r="W15" s="49"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="53"/>
+      <c r="AF15" s="51"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="40"/>
+      <c r="AK15" s="52"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="34" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1147,17 +1191,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="41"/>
+      <c r="N16" s="53"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="48"/>
+      <c r="W16" s="49"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="53"/>
+      <c r="AF16" s="51"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="40"/>
+      <c r="AK16" s="52"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="60"/>
+      <c r="D17" s="34"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1165,16 +1209,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="41"/>
+      <c r="N17" s="53"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="48"/>
+      <c r="W17" s="49"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="53"/>
+      <c r="AF17" s="51"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="40"/>
+      <c r="AK17" s="52"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1184,24 +1228,24 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="41"/>
+      <c r="N18" s="53"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="48"/>
+      <c r="W18" s="49"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="53"/>
+      <c r="AF18" s="51"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="40"/>
+      <c r="AK18" s="52"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="61"/>
+      <c r="D19" s="35"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1209,16 +1253,16 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="41"/>
+      <c r="N19" s="53"/>
       <c r="R19" s="11"/>
-      <c r="W19" s="48"/>
+      <c r="W19" s="49"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="53"/>
+      <c r="AF19" s="51"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="40"/>
+      <c r="AK19" s="52"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1232,47 +1276,49 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="41"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="48"/>
+      <c r="W20" s="49"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AC20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="53"/>
+      <c r="AF20" s="51"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="40"/>
+      <c r="AK20" s="52"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="62"/>
+      <c r="D21" s="36"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="32"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="41"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="53"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
       <c r="R21" s="11"/>
-      <c r="W21" s="48"/>
+      <c r="W21" s="49"/>
       <c r="AA21" s="11"/>
-      <c r="AF21" s="53"/>
+      <c r="AF21" s="51"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="40"/>
+      <c r="AK21" s="52"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="37" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1282,98 +1328,91 @@
       <c r="G22" s="19"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="53"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="48"/>
+      <c r="W22" s="49"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="53"/>
+      <c r="AF22" s="51"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="40"/>
+      <c r="AK22" s="52"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="63"/>
+      <c r="D23" s="37"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="53"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="48"/>
+      <c r="W23" s="49"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="53"/>
+      <c r="AF23" s="51"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="40"/>
+      <c r="AK23" s="52"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="O24" s="42" t="s">
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="O24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="44" t="s">
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="X24" s="42" t="s">
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="X24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="44" t="s">
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="42" t="s">
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="40"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="AK5:AK24"/>
+    <mergeCell ref="N5:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="X4:AE4"/>
     <mergeCell ref="O4:V4"/>
     <mergeCell ref="W5:W23"/>
@@ -1385,16 +1424,23 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AF5:AF24"/>
-    <mergeCell ref="AK5:AK24"/>
-    <mergeCell ref="N5:N23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +329,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,81 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
@@ -507,6 +439,84 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -802,7 +812,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,126 +825,126 @@
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="47" t="s">
+      <c r="X4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="50" t="s">
+      <c r="AG4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="51"/>
+      <c r="J5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="46" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="53" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="51"/>
+      <c r="Q5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="45" t="s">
+      <c r="R5" s="51"/>
+      <c r="S5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="46" t="s">
+      <c r="T5" s="51"/>
+      <c r="U5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="49" t="s">
+      <c r="V5" s="57"/>
+      <c r="W5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="45" t="s">
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="45" t="s">
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="46" t="s">
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="46"/>
-      <c r="AF5" s="51" t="s">
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="39" t="s">
+      <c r="AG5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="46" t="s">
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="52" t="s">
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="63" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -948,7 +958,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="53"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -957,7 +967,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="49"/>
+      <c r="W6" s="60"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -966,15 +976,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="51"/>
+      <c r="AF6" s="62"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="52"/>
+      <c r="AK6" s="63"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="41"/>
+      <c r="D7" s="52"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -982,21 +992,21 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="53"/>
-      <c r="P7" s="66"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="64"/>
+      <c r="P7" s="40"/>
       <c r="R7" s="11"/>
-      <c r="W7" s="49"/>
+      <c r="W7" s="60"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="51"/>
+      <c r="AF7" s="62"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="52"/>
+      <c r="AK7" s="63"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1007,20 +1017,20 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="53"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="49"/>
+      <c r="W8" s="60"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="51"/>
+      <c r="AF8" s="62"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="52"/>
+      <c r="AK8" s="63"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="42"/>
+      <c r="D9" s="53"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1028,19 +1038,20 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="11"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="53"/>
-      <c r="P9" s="60"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="64"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
-      <c r="W9" s="49"/>
+      <c r="W9" s="60"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="51"/>
+      <c r="AF9" s="62"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="52"/>
+      <c r="AK9" s="63"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="54" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1050,27 +1061,27 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="53"/>
+      <c r="N10" s="64"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="49"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="51"/>
+      <c r="AF10" s="62"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="52"/>
+      <c r="AK10" s="63"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="43"/>
+      <c r="D11" s="54"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1078,17 +1089,18 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="53"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="11"/>
-      <c r="W11" s="49"/>
+      <c r="N11" s="64"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="70"/>
+      <c r="W11" s="60"/>
       <c r="AA11" s="11"/>
-      <c r="AF11" s="51"/>
+      <c r="AF11" s="62"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="52"/>
+      <c r="AK11" s="63"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1098,12 +1110,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="53"/>
+      <c r="N12" s="64"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="49"/>
+      <c r="W12" s="60"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
@@ -1112,13 +1124,13 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="51"/>
+      <c r="AF12" s="62"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="52"/>
+      <c r="AK12" s="63"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="44"/>
+      <c r="D13" s="55"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1126,17 +1138,16 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="53"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="11"/>
-      <c r="W13" s="49"/>
+      <c r="N13" s="64"/>
+      <c r="R13" s="69"/>
+      <c r="W13" s="60"/>
       <c r="AA13" s="11"/>
-      <c r="AF13" s="51"/>
+      <c r="AF13" s="62"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="52"/>
+      <c r="AK13" s="63"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="44" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1146,24 +1157,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="64"/>
       <c r="P14" s="25"/>
       <c r="R14" s="11"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="49"/>
+      <c r="W14" s="60"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
       <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="51"/>
+      <c r="AF14" s="62"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="52"/>
+      <c r="AK14" s="63"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="33"/>
+      <c r="D15" s="44"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1171,17 +1182,16 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="53"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="11"/>
-      <c r="W15" s="49"/>
+      <c r="N15" s="64"/>
+      <c r="R15" s="68"/>
+      <c r="W15" s="60"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="51"/>
+      <c r="AF15" s="62"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="52"/>
+      <c r="AK15" s="63"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="45" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1191,17 +1201,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="53"/>
+      <c r="N16" s="64"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="49"/>
+      <c r="W16" s="60"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="51"/>
+      <c r="AF16" s="62"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="52"/>
+      <c r="AK16" s="63"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="34"/>
+      <c r="D17" s="45"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1209,16 +1219,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="53"/>
+      <c r="N17" s="64"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="49"/>
+      <c r="W17" s="60"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="51"/>
+      <c r="AF17" s="62"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="52"/>
+      <c r="AK17" s="63"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1228,24 +1238,26 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="53"/>
+      <c r="N18" s="64"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="49"/>
+      <c r="W18" s="60"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="51"/>
+      <c r="AF18" s="62"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="52"/>
+      <c r="AK18" s="63"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="35"/>
+      <c r="D19" s="46"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1253,16 +1265,17 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="53"/>
-      <c r="R19" s="11"/>
-      <c r="W19" s="49"/>
+      <c r="N19" s="64"/>
+      <c r="P19" s="43"/>
+      <c r="R19" s="72"/>
+      <c r="W19" s="60"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="51"/>
+      <c r="AF19" s="62"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="52"/>
+      <c r="AK19" s="63"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="47" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1276,49 +1289,49 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="53"/>
+      <c r="N20" s="64"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="49"/>
+      <c r="W20" s="60"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AC20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="51"/>
+      <c r="AF20" s="62"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="52"/>
+      <c r="AK20" s="63"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="36"/>
+      <c r="D21" s="47"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="64"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="53"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="64"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
-      <c r="W21" s="49"/>
+      <c r="W21" s="60"/>
       <c r="AA21" s="11"/>
-      <c r="AF21" s="51"/>
+      <c r="AF21" s="62"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="52"/>
+      <c r="AK21" s="63"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="48" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1329,77 +1342,77 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="53"/>
+      <c r="N22" s="64"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="49"/>
+      <c r="W22" s="60"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="51"/>
+      <c r="AF22" s="62"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="52"/>
+      <c r="AK22" s="63"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="37"/>
+      <c r="D23" s="48"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="63"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="53"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="64"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="49"/>
+      <c r="W23" s="60"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="51"/>
+      <c r="AF23" s="62"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="52"/>
+      <c r="AK23" s="63"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="54" t="s">
+      <c r="F24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56" t="s">
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="O24" s="54" t="s">
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="O24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56" t="s">
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="X24" s="54" t="s">
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="X24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="56" t="s">
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="51"/>
-      <c r="AG24" s="54" t="s">
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="52"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +281,6 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0"/>
         <bgColor rgb="FF002060"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor theme="0"/>
-        <bgColor theme="5" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
     <fill>
@@ -373,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,16 +424,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -455,68 +510,9 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -809,10 +805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="D3:AK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,126 +824,126 @@
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="58" t="s">
+      <c r="X4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="61" t="s">
+      <c r="AG4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="56" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="57" t="s">
+      <c r="K5" s="59"/>
+      <c r="L5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="64" t="s">
+      <c r="M5" s="53"/>
+      <c r="N5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="56" t="s">
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="51"/>
-      <c r="S5" s="56" t="s">
+      <c r="R5" s="59"/>
+      <c r="S5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="51"/>
-      <c r="U5" s="57" t="s">
+      <c r="T5" s="59"/>
+      <c r="U5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="60" t="s">
+      <c r="V5" s="53"/>
+      <c r="W5" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="56" t="s">
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="56" t="s">
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="57" t="s">
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="62" t="s">
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="50" t="s">
+      <c r="AG5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="57" t="s">
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="63" t="s">
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="48" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="64" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -958,7 +957,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="64"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -967,7 +966,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="60"/>
+      <c r="W6" s="56"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -976,15 +975,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="62"/>
+      <c r="AF6" s="61"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="63"/>
+      <c r="AK6" s="48"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="52"/>
+      <c r="D7" s="64"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -996,17 +995,17 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="64"/>
+      <c r="N7" s="49"/>
       <c r="P7" s="40"/>
       <c r="R7" s="11"/>
-      <c r="W7" s="60"/>
+      <c r="W7" s="56"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="62"/>
+      <c r="AF7" s="61"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="63"/>
+      <c r="AK7" s="48"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1018,19 +1017,19 @@
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="64"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="60"/>
+      <c r="W8" s="56"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="62"/>
+      <c r="AF8" s="61"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="63"/>
+      <c r="AK8" s="48"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="53"/>
+      <c r="D9" s="65"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1040,18 +1039,18 @@
       <c r="I9" s="11"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="64"/>
+      <c r="N9" s="49"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
-      <c r="W9" s="60"/>
+      <c r="W9" s="56"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="62"/>
+      <c r="AF9" s="61"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="63"/>
+      <c r="AK9" s="48"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="66" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1061,7 +1060,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="64"/>
+      <c r="N10" s="49"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -1069,19 +1068,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="60"/>
+      <c r="W10" s="56"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="62"/>
+      <c r="AF10" s="61"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="63"/>
+      <c r="AK10" s="48"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="54"/>
+      <c r="D11" s="66"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1089,18 +1088,20 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="64"/>
+      <c r="N11" s="49"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
-      <c r="R11" s="70"/>
-      <c r="W11" s="60"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="45"/>
+      <c r="W11" s="56"/>
       <c r="AA11" s="11"/>
-      <c r="AF11" s="62"/>
+      <c r="AF11" s="61"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="63"/>
+      <c r="AK11" s="48"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="62" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1110,12 +1111,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="64"/>
+      <c r="N12" s="49"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="60"/>
+      <c r="W12" s="56"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
@@ -1124,13 +1125,13 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="62"/>
+      <c r="AF12" s="61"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="63"/>
+      <c r="AK12" s="48"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="55"/>
+      <c r="D13" s="62"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1138,16 +1139,17 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="64"/>
-      <c r="R13" s="69"/>
-      <c r="W13" s="60"/>
+      <c r="N13" s="49"/>
+      <c r="R13" s="44"/>
+      <c r="T13" s="73"/>
+      <c r="W13" s="56"/>
       <c r="AA13" s="11"/>
-      <c r="AF13" s="62"/>
+      <c r="AF13" s="61"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="63"/>
+      <c r="AK13" s="48"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="67" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1157,24 +1159,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="64"/>
-      <c r="P14" s="25"/>
+      <c r="N14" s="49"/>
       <c r="R14" s="11"/>
+      <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="60"/>
+      <c r="W14" s="56"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
       <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="62"/>
+      <c r="AF14" s="61"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="63"/>
+      <c r="AK14" s="48"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="44"/>
+      <c r="D15" s="67"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1182,16 +1184,16 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="64"/>
-      <c r="R15" s="68"/>
-      <c r="W15" s="60"/>
+      <c r="N15" s="49"/>
+      <c r="R15" s="11"/>
+      <c r="W15" s="56"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="62"/>
+      <c r="AF15" s="61"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="63"/>
+      <c r="AK15" s="48"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="68" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1201,17 +1203,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="64"/>
+      <c r="N16" s="49"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="60"/>
+      <c r="W16" s="56"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="62"/>
+      <c r="AF16" s="61"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="63"/>
+      <c r="AK16" s="48"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="45"/>
+      <c r="D17" s="68"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1219,16 +1221,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="64"/>
+      <c r="N17" s="49"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="56"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="62"/>
+      <c r="AF17" s="61"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="63"/>
+      <c r="AK17" s="48"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1238,26 +1240,26 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="64"/>
-      <c r="P18" s="71"/>
+      <c r="N18" s="49"/>
+      <c r="P18" s="46"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="60"/>
+      <c r="W18" s="56"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="62"/>
+      <c r="AF18" s="61"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="63"/>
+      <c r="AK18" s="48"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="46"/>
+      <c r="D19" s="69"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1265,17 +1267,18 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="64"/>
+      <c r="N19" s="49"/>
       <c r="P19" s="43"/>
-      <c r="R19" s="72"/>
-      <c r="W19" s="60"/>
+      <c r="R19" s="47"/>
+      <c r="T19" s="74"/>
+      <c r="W19" s="56"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="62"/>
+      <c r="AF19" s="61"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="63"/>
+      <c r="AK19" s="48"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="70" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1289,26 +1292,26 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="64"/>
+      <c r="N20" s="49"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="60"/>
+      <c r="W20" s="56"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AC20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="62"/>
+      <c r="AF20" s="61"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="63"/>
+      <c r="AK20" s="48"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="47"/>
+      <c r="D21" s="70"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1320,18 +1323,20 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="64"/>
+      <c r="N21" s="49"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
-      <c r="W21" s="60"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="W21" s="56"/>
       <c r="AA21" s="11"/>
-      <c r="AF21" s="62"/>
+      <c r="AF21" s="61"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="63"/>
+      <c r="AK21" s="48"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1342,16 +1347,16 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="64"/>
+      <c r="N22" s="49"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="60"/>
+      <c r="W22" s="56"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="62"/>
+      <c r="AF22" s="61"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="63"/>
+      <c r="AK22" s="48"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="48"/>
+      <c r="D23" s="71"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
@@ -1360,72 +1365,79 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="64"/>
+      <c r="N23" s="49"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="60"/>
+      <c r="W23" s="56"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="62"/>
+      <c r="AF23" s="61"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="63"/>
+      <c r="AK23" s="48"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="67" t="s">
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="O24" s="65" t="s">
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="O24" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="67" t="s">
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="X24" s="65" t="s">
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="X24" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="67" t="s">
+      <c r="Y24" s="50"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="65" t="s">
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="52"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="65"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="63"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK5:AK24"/>
-    <mergeCell ref="N5:N23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="X4:AE4"/>
     <mergeCell ref="O4:V4"/>
     <mergeCell ref="W5:W23"/>
@@ -1437,25 +1449,18 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AF5:AF24"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AK5:AK24"/>
+    <mergeCell ref="N5:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="U5:V5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +329,12 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0"/>
         <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor theme="5" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -438,81 +444,82 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -811,7 +818,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:AK24"/>
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,120 +837,120 @@
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="55" t="s">
+      <c r="O4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="54" t="s">
+      <c r="X4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="57" t="s">
+      <c r="AG4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60" t="s">
+      <c r="I5" s="58"/>
+      <c r="J5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="53" t="s">
+      <c r="K5" s="58"/>
+      <c r="L5" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="53"/>
-      <c r="N5" s="49" t="s">
+      <c r="M5" s="64"/>
+      <c r="N5" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60" t="s">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="59"/>
-      <c r="S5" s="60" t="s">
+      <c r="R5" s="58"/>
+      <c r="S5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="53" t="s">
+      <c r="T5" s="58"/>
+      <c r="U5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="53"/>
-      <c r="W5" s="56" t="s">
+      <c r="V5" s="64"/>
+      <c r="W5" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="58" t="s">
+      <c r="X5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="60" t="s">
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="60" t="s">
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="53" t="s">
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="61" t="s">
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="58" t="s">
+      <c r="AG5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="53" t="s">
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="48" t="s">
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="70" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -957,7 +964,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="49"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -966,7 +973,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="56"/>
+      <c r="W6" s="67"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -975,15 +982,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="61"/>
+      <c r="AF6" s="69"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="48"/>
+      <c r="AK6" s="70"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="64"/>
+      <c r="D7" s="59"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -995,17 +1002,18 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="49"/>
+      <c r="N7" s="71"/>
       <c r="P7" s="40"/>
       <c r="R7" s="11"/>
-      <c r="W7" s="56"/>
+      <c r="T7" s="40"/>
+      <c r="W7" s="67"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="61"/>
+      <c r="AF7" s="69"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="48"/>
+      <c r="AK7" s="70"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1017,19 +1025,19 @@
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="49"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="56"/>
+      <c r="W8" s="67"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="61"/>
+      <c r="AF8" s="69"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="48"/>
+      <c r="AK8" s="70"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="65"/>
+      <c r="D9" s="60"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1039,18 +1047,19 @@
       <c r="I9" s="11"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="49"/>
+      <c r="N9" s="71"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
-      <c r="W9" s="56"/>
+      <c r="T9" s="34"/>
+      <c r="W9" s="67"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="61"/>
+      <c r="AF9" s="69"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="48"/>
+      <c r="AK9" s="70"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="61" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1060,7 +1069,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="49"/>
+      <c r="N10" s="71"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -1068,19 +1077,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="56"/>
+      <c r="W10" s="67"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="61"/>
+      <c r="AF10" s="69"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="48"/>
+      <c r="AK10" s="70"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="66"/>
+      <c r="D11" s="61"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1088,17 +1097,17 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="49"/>
+      <c r="N11" s="71"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="45"/>
-      <c r="S11" s="72"/>
+      <c r="S11" s="48"/>
       <c r="T11" s="45"/>
-      <c r="W11" s="56"/>
+      <c r="W11" s="67"/>
       <c r="AA11" s="11"/>
-      <c r="AF11" s="61"/>
+      <c r="AF11" s="69"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="48"/>
+      <c r="AK11" s="70"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D12" s="62" t="s">
@@ -1111,12 +1120,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="49"/>
+      <c r="N12" s="71"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="56"/>
+      <c r="W12" s="67"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
@@ -1125,10 +1134,10 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="61"/>
+      <c r="AF12" s="69"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="48"/>
+      <c r="AK12" s="70"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D13" s="62"/>
@@ -1139,17 +1148,17 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="49"/>
+      <c r="N13" s="71"/>
       <c r="R13" s="44"/>
-      <c r="T13" s="73"/>
-      <c r="W13" s="56"/>
+      <c r="T13" s="49"/>
+      <c r="W13" s="67"/>
       <c r="AA13" s="11"/>
-      <c r="AF13" s="61"/>
+      <c r="AF13" s="69"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="48"/>
+      <c r="AK13" s="70"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="51" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1159,24 +1168,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="49"/>
+      <c r="N14" s="71"/>
       <c r="R14" s="11"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="56"/>
+      <c r="W14" s="67"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
       <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="61"/>
+      <c r="AF14" s="69"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="48"/>
+      <c r="AK14" s="70"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="67"/>
+      <c r="D15" s="51"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1184,16 +1193,17 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="49"/>
+      <c r="N15" s="71"/>
       <c r="R15" s="11"/>
-      <c r="W15" s="56"/>
+      <c r="T15" s="75"/>
+      <c r="W15" s="67"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="61"/>
+      <c r="AF15" s="69"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="48"/>
+      <c r="AK15" s="70"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="52" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1203,17 +1213,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="49"/>
+      <c r="N16" s="71"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="56"/>
+      <c r="W16" s="67"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="61"/>
+      <c r="AF16" s="69"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="48"/>
+      <c r="AK16" s="70"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="68"/>
+      <c r="D17" s="52"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1221,16 +1231,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="49"/>
+      <c r="N17" s="71"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="67"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="61"/>
+      <c r="AF17" s="69"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="48"/>
+      <c r="AK17" s="70"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="53" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1240,26 +1250,26 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="49"/>
+      <c r="N18" s="71"/>
       <c r="P18" s="46"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="56"/>
+      <c r="W18" s="67"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="61"/>
+      <c r="AF18" s="69"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="48"/>
+      <c r="AK18" s="70"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="69"/>
+      <c r="D19" s="53"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1267,18 +1277,18 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="49"/>
+      <c r="N19" s="71"/>
       <c r="P19" s="43"/>
       <c r="R19" s="47"/>
-      <c r="T19" s="74"/>
-      <c r="W19" s="56"/>
+      <c r="T19" s="50"/>
+      <c r="W19" s="67"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="61"/>
+      <c r="AF19" s="69"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="48"/>
+      <c r="AK19" s="70"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="54" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1292,26 +1302,26 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="49"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="56"/>
+      <c r="W20" s="67"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AC20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="61"/>
+      <c r="AF20" s="69"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="48"/>
+      <c r="AK20" s="70"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="70"/>
+      <c r="D21" s="54"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1323,20 +1333,20 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="49"/>
+      <c r="N21" s="71"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
-      <c r="W21" s="56"/>
+      <c r="W21" s="67"/>
       <c r="AA21" s="11"/>
-      <c r="AF21" s="61"/>
+      <c r="AF21" s="69"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="48"/>
+      <c r="AK21" s="70"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="55" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1347,16 +1357,16 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="49"/>
+      <c r="N22" s="71"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="56"/>
+      <c r="W22" s="67"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="61"/>
+      <c r="AF22" s="69"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="48"/>
+      <c r="AK22" s="70"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="71"/>
+      <c r="D23" s="55"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
@@ -1365,79 +1375,72 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="49"/>
+      <c r="N23" s="71"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="56"/>
+      <c r="W23" s="67"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="61"/>
+      <c r="AF23" s="69"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="48"/>
+      <c r="AK23" s="70"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="52" t="s">
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="O24" s="50" t="s">
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="O24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="52" t="s">
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="X24" s="50" t="s">
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="X24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="52" t="s">
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="50" t="s">
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="48"/>
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="72"/>
+      <c r="AJ24" s="73"/>
+      <c r="AK24" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="AK5:AK24"/>
+    <mergeCell ref="N5:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="X4:AE4"/>
     <mergeCell ref="O4:V4"/>
     <mergeCell ref="W5:W23"/>
@@ -1449,16 +1452,23 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AF5:AF24"/>
-    <mergeCell ref="AK5:AK24"/>
-    <mergeCell ref="N5:N23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -373,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,12 +441,12 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -519,7 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -818,7 +817,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +830,7 @@
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1100,9 +1099,9 @@
       <c r="N11" s="71"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="45"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="47"/>
+      <c r="U11" s="47"/>
       <c r="W11" s="67"/>
       <c r="AA11" s="11"/>
       <c r="AF11" s="69"/>
@@ -1150,7 +1149,7 @@
       <c r="I13" s="11"/>
       <c r="N13" s="71"/>
       <c r="R13" s="44"/>
-      <c r="T13" s="49"/>
+      <c r="S13" s="48"/>
       <c r="W13" s="67"/>
       <c r="AA13" s="11"/>
       <c r="AF13" s="69"/>
@@ -1195,7 +1194,8 @@
       <c r="I15" s="11"/>
       <c r="N15" s="71"/>
       <c r="R15" s="11"/>
-      <c r="T15" s="75"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
       <c r="W15" s="67"/>
       <c r="AA15" s="11"/>
       <c r="AF15" s="69"/>
@@ -1251,7 +1251,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
       <c r="N18" s="71"/>
-      <c r="P18" s="46"/>
+      <c r="P18" s="45"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
@@ -1279,8 +1279,8 @@
       <c r="I19" s="11"/>
       <c r="N19" s="71"/>
       <c r="P19" s="43"/>
-      <c r="R19" s="47"/>
-      <c r="T19" s="50"/>
+      <c r="R19" s="46"/>
+      <c r="T19" s="49"/>
       <c r="W19" s="67"/>
       <c r="AA19" s="11"/>
       <c r="AF19" s="69"/>

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -373,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,6 +447,63 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -462,63 +519,7 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -817,7 +818,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,126 +831,126 @@
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="X3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="65" t="s">
+      <c r="X4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="68" t="s">
+      <c r="AG4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="58"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="58"/>
+      <c r="I5" s="62"/>
       <c r="J5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="64" t="s">
+      <c r="K5" s="62"/>
+      <c r="L5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="64"/>
-      <c r="N5" s="71" t="s">
+      <c r="M5" s="56"/>
+      <c r="N5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="58"/>
+      <c r="P5" s="62"/>
       <c r="Q5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="58"/>
+      <c r="R5" s="62"/>
       <c r="S5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="64" t="s">
+      <c r="T5" s="62"/>
+      <c r="U5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="64"/>
-      <c r="W5" s="67" t="s">
+      <c r="V5" s="56"/>
+      <c r="W5" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="57" t="s">
+      <c r="X5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="58"/>
+      <c r="Y5" s="62"/>
       <c r="Z5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="58"/>
+      <c r="AA5" s="62"/>
       <c r="AB5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="64" t="s">
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="69" t="s">
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="57" t="s">
+      <c r="AG5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="64" t="s">
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="64"/>
-      <c r="AK5" s="70" t="s">
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="51" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="67" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -963,7 +964,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="71"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -972,7 +973,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="67"/>
+      <c r="W6" s="59"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -981,15 +982,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="69"/>
+      <c r="AF6" s="64"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="70"/>
+      <c r="AK6" s="51"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="59"/>
+      <c r="D7" s="67"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -1001,18 +1002,18 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="71"/>
+      <c r="N7" s="52"/>
       <c r="P7" s="40"/>
       <c r="R7" s="11"/>
       <c r="T7" s="40"/>
-      <c r="W7" s="67"/>
+      <c r="W7" s="59"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="69"/>
+      <c r="AF7" s="64"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="70"/>
+      <c r="AK7" s="51"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="68" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1024,19 +1025,19 @@
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="71"/>
+      <c r="N8" s="52"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="67"/>
+      <c r="W8" s="59"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="69"/>
+      <c r="AF8" s="64"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="70"/>
+      <c r="AK8" s="51"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="60"/>
+      <c r="D9" s="68"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1046,19 +1047,19 @@
       <c r="I9" s="11"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="71"/>
+      <c r="N9" s="52"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
       <c r="T9" s="34"/>
-      <c r="W9" s="67"/>
+      <c r="W9" s="59"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="69"/>
+      <c r="AF9" s="64"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="70"/>
+      <c r="AK9" s="51"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1068,7 +1069,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="71"/>
+      <c r="N10" s="52"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -1076,19 +1077,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="67"/>
+      <c r="W10" s="59"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="69"/>
+      <c r="AF10" s="64"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="70"/>
+      <c r="AK10" s="51"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="61"/>
+      <c r="D11" s="69"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1096,20 +1097,23 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="71"/>
+      <c r="N11" s="52"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="11"/>
       <c r="S11" s="47"/>
       <c r="U11" s="47"/>
-      <c r="W11" s="67"/>
-      <c r="AA11" s="11"/>
-      <c r="AF11" s="69"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="75"/>
+      <c r="AF11" s="64"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="70"/>
+      <c r="AK11" s="51"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="65" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1119,12 +1123,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="71"/>
+      <c r="N12" s="52"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="67"/>
+      <c r="W12" s="59"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
@@ -1133,13 +1137,13 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="69"/>
+      <c r="AF12" s="64"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="70"/>
+      <c r="AK12" s="51"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="62"/>
+      <c r="D13" s="65"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1147,17 +1151,20 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="71"/>
+      <c r="N13" s="52"/>
       <c r="R13" s="44"/>
       <c r="S13" s="48"/>
-      <c r="W13" s="67"/>
-      <c r="AA13" s="11"/>
-      <c r="AF13" s="69"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="44"/>
+      <c r="AF13" s="64"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="70"/>
+      <c r="AK13" s="51"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="70" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1167,24 +1174,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="71"/>
+      <c r="N14" s="52"/>
       <c r="R14" s="11"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="67"/>
+      <c r="W14" s="59"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
       <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="69"/>
+      <c r="AF14" s="64"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="70"/>
+      <c r="AK14" s="51"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="51"/>
+      <c r="D15" s="70"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1192,18 +1199,19 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="71"/>
+      <c r="N15" s="52"/>
       <c r="R15" s="11"/>
       <c r="T15" s="50"/>
       <c r="U15" s="50"/>
-      <c r="W15" s="67"/>
+      <c r="W15" s="59"/>
+      <c r="Y15" s="50"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="69"/>
+      <c r="AF15" s="64"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="70"/>
+      <c r="AK15" s="51"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="71" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1213,17 +1221,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="71"/>
+      <c r="N16" s="52"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="67"/>
+      <c r="W16" s="59"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="69"/>
+      <c r="AF16" s="64"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="70"/>
+      <c r="AK16" s="51"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="52"/>
+      <c r="D17" s="71"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1231,16 +1239,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="71"/>
+      <c r="N17" s="52"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="67"/>
+      <c r="W17" s="59"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="69"/>
+      <c r="AF17" s="64"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="70"/>
+      <c r="AK17" s="51"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="72" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1250,26 +1258,26 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="71"/>
+      <c r="N18" s="52"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="67"/>
+      <c r="W18" s="59"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="69"/>
+      <c r="AF18" s="64"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="70"/>
+      <c r="AK18" s="51"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="53"/>
+      <c r="D19" s="72"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1277,18 +1285,18 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="71"/>
+      <c r="N19" s="52"/>
       <c r="P19" s="43"/>
       <c r="R19" s="46"/>
       <c r="T19" s="49"/>
-      <c r="W19" s="67"/>
+      <c r="W19" s="59"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="69"/>
+      <c r="AF19" s="64"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="70"/>
+      <c r="AK19" s="51"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="73" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1302,26 +1310,26 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="71"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="67"/>
+      <c r="W20" s="59"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AC20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="69"/>
+      <c r="AF20" s="64"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="70"/>
+      <c r="AK20" s="51"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="54"/>
+      <c r="D21" s="73"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1333,20 +1341,20 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="71"/>
+      <c r="N21" s="52"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
-      <c r="W21" s="67"/>
-      <c r="AA21" s="11"/>
-      <c r="AF21" s="69"/>
+      <c r="W21" s="59"/>
+      <c r="AA21" s="39"/>
+      <c r="AF21" s="64"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="70"/>
+      <c r="AK21" s="51"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="74" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1357,16 +1365,16 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="71"/>
+      <c r="N22" s="52"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="67"/>
+      <c r="W22" s="59"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="69"/>
+      <c r="AF22" s="64"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="70"/>
+      <c r="AK22" s="51"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="55"/>
+      <c r="D23" s="74"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
@@ -1375,72 +1383,79 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="71"/>
+      <c r="N23" s="52"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="67"/>
+      <c r="W23" s="59"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="69"/>
+      <c r="AF23" s="64"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="70"/>
+      <c r="AK23" s="51"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74" t="s">
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="O24" s="72" t="s">
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="O24" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="74" t="s">
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="74"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="X24" s="72" t="s">
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="X24" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74" t="s">
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="72" t="s">
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="73"/>
-      <c r="AK24" s="70"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="53"/>
+      <c r="AJ24" s="54"/>
+      <c r="AK24" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK5:AK24"/>
-    <mergeCell ref="N5:N23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="X4:AE4"/>
     <mergeCell ref="O4:V4"/>
     <mergeCell ref="W5:W23"/>
@@ -1452,23 +1467,16 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AF5:AF24"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AK5:AK24"/>
+    <mergeCell ref="N5:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="U5:V5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -447,6 +447,64 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -462,64 +520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
@@ -818,7 +818,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,126 +831,126 @@
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="57" t="s">
+      <c r="X4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="60" t="s">
+      <c r="AG4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="56" t="s">
+      <c r="K5" s="59"/>
+      <c r="L5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="65"/>
+      <c r="N5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="61" t="s">
+      <c r="O5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63" t="s">
+      <c r="P5" s="59"/>
+      <c r="Q5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="63" t="s">
+      <c r="R5" s="59"/>
+      <c r="S5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="62"/>
-      <c r="U5" s="56" t="s">
+      <c r="T5" s="59"/>
+      <c r="U5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="59" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="61" t="s">
+      <c r="X5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="63" t="s">
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="63" t="s">
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="56" t="s">
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="64" t="s">
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="61" t="s">
+      <c r="AG5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="56" t="s">
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="51" t="s">
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="71" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="60" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -964,7 +964,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="52"/>
+      <c r="N6" s="72"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -973,7 +973,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="59"/>
+      <c r="W6" s="68"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -982,15 +982,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="64"/>
+      <c r="AF6" s="70"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="51"/>
+      <c r="AK6" s="71"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="67"/>
+      <c r="D7" s="60"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -1002,18 +1002,18 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="72"/>
       <c r="P7" s="40"/>
       <c r="R7" s="11"/>
       <c r="T7" s="40"/>
-      <c r="W7" s="59"/>
+      <c r="W7" s="68"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="64"/>
+      <c r="AF7" s="70"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="51"/>
+      <c r="AK7" s="71"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="61" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1025,19 +1025,19 @@
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="72"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="59"/>
+      <c r="W8" s="68"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="64"/>
+      <c r="AF8" s="70"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="51"/>
+      <c r="AK8" s="71"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="68"/>
+      <c r="D9" s="61"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1047,19 +1047,19 @@
       <c r="I9" s="11"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="72"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
       <c r="T9" s="34"/>
-      <c r="W9" s="59"/>
+      <c r="W9" s="68"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="64"/>
+      <c r="AF9" s="70"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="51"/>
+      <c r="AK9" s="71"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="62" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1069,7 +1069,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="72"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -1077,19 +1077,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="59"/>
+      <c r="W10" s="68"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="64"/>
+      <c r="AF10" s="70"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="51"/>
+      <c r="AK10" s="71"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="69"/>
+      <c r="D11" s="62"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1097,23 +1097,23 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="72"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="11"/>
       <c r="S11" s="47"/>
       <c r="U11" s="47"/>
-      <c r="W11" s="59"/>
+      <c r="W11" s="68"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
-      <c r="AA11" s="75"/>
-      <c r="AF11" s="64"/>
+      <c r="AA11" s="51"/>
+      <c r="AF11" s="70"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="51"/>
+      <c r="AK11" s="71"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1123,12 +1123,12 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="52"/>
+      <c r="N12" s="72"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="59"/>
+      <c r="W12" s="68"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
@@ -1137,13 +1137,13 @@
       <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="64"/>
+      <c r="AF12" s="70"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="51"/>
+      <c r="AK12" s="71"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
+      <c r="D13" s="63"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1151,20 +1151,20 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="52"/>
+      <c r="N13" s="72"/>
       <c r="R13" s="44"/>
       <c r="S13" s="48"/>
-      <c r="W13" s="59"/>
+      <c r="W13" s="68"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
       <c r="AA13" s="44"/>
-      <c r="AF13" s="64"/>
+      <c r="AF13" s="70"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="51"/>
+      <c r="AK13" s="71"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="52" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1174,24 +1174,24 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="52"/>
+      <c r="N14" s="72"/>
       <c r="R14" s="11"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="59"/>
+      <c r="W14" s="68"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
       <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="64"/>
+      <c r="AF14" s="70"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="51"/>
+      <c r="AK14" s="71"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="70"/>
+      <c r="D15" s="52"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1199,19 +1199,19 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="52"/>
+      <c r="N15" s="72"/>
       <c r="R15" s="11"/>
       <c r="T15" s="50"/>
       <c r="U15" s="50"/>
-      <c r="W15" s="59"/>
+      <c r="W15" s="68"/>
       <c r="Y15" s="50"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="64"/>
+      <c r="AF15" s="70"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="51"/>
+      <c r="AK15" s="71"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="53" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1221,17 +1221,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="52"/>
+      <c r="N16" s="72"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="59"/>
+      <c r="W16" s="68"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="64"/>
+      <c r="AF16" s="70"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="51"/>
+      <c r="AK16" s="71"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="71"/>
+      <c r="D17" s="53"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1239,16 +1239,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="52"/>
+      <c r="N17" s="72"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="59"/>
+      <c r="W17" s="68"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="64"/>
+      <c r="AF17" s="70"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="51"/>
+      <c r="AK17" s="71"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="54" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1258,26 +1258,26 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="52"/>
+      <c r="N18" s="72"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="59"/>
+      <c r="W18" s="68"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="64"/>
+      <c r="AF18" s="70"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="51"/>
+      <c r="AK18" s="71"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="72"/>
+      <c r="D19" s="54"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1285,18 +1285,18 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="72"/>
       <c r="P19" s="43"/>
       <c r="R19" s="46"/>
       <c r="T19" s="49"/>
-      <c r="W19" s="59"/>
+      <c r="W19" s="68"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="64"/>
+      <c r="AF19" s="70"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="51"/>
+      <c r="AK19" s="71"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="55" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1310,26 +1310,26 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="52"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="59"/>
+      <c r="W20" s="68"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AC20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="64"/>
+      <c r="AF20" s="70"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="51"/>
+      <c r="AK20" s="71"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="73"/>
+      <c r="D21" s="55"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1341,20 +1341,20 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="72"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
-      <c r="W21" s="59"/>
+      <c r="W21" s="68"/>
       <c r="AA21" s="39"/>
-      <c r="AF21" s="64"/>
+      <c r="AF21" s="70"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="51"/>
+      <c r="AK21" s="71"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1365,16 +1365,16 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="52"/>
+      <c r="N22" s="72"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="59"/>
+      <c r="W22" s="68"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="64"/>
+      <c r="AF22" s="70"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="51"/>
+      <c r="AK22" s="71"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="74"/>
+      <c r="D23" s="56"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
@@ -1383,79 +1383,72 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="52"/>
+      <c r="N23" s="72"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="59"/>
+      <c r="W23" s="68"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="64"/>
+      <c r="AF23" s="70"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="51"/>
+      <c r="AK23" s="71"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="53" t="s">
+      <c r="F24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55" t="s">
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="O24" s="53" t="s">
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="O24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="55" t="s">
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="X24" s="53" t="s">
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="X24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="55" t="s">
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="53" t="s">
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="70"/>
+      <c r="AG24" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="51"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="AK5:AK24"/>
+    <mergeCell ref="N5:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="X4:AE4"/>
     <mergeCell ref="O4:V4"/>
     <mergeCell ref="W5:W23"/>
@@ -1467,16 +1460,23 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AF5:AF24"/>
-    <mergeCell ref="AK5:AK24"/>
-    <mergeCell ref="N5:N23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -448,6 +448,63 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -462,63 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -818,7 +818,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+      <selection activeCell="AD38" sqref="AD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,126 +831,126 @@
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="AD3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="66" t="s">
+      <c r="X4" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="69" t="s">
+      <c r="AG4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="59"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="59"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="72" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="59"/>
+      <c r="P5" s="63"/>
       <c r="Q5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="59"/>
+      <c r="R5" s="63"/>
       <c r="S5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="59"/>
-      <c r="U5" s="65" t="s">
+      <c r="T5" s="63"/>
+      <c r="U5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="65"/>
-      <c r="W5" s="68" t="s">
+      <c r="V5" s="57"/>
+      <c r="W5" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="58" t="s">
+      <c r="X5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="59"/>
+      <c r="Y5" s="63"/>
       <c r="Z5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="59"/>
+      <c r="AA5" s="63"/>
       <c r="AB5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="65" t="s">
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="70" t="s">
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="58" t="s">
+      <c r="AG5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="65" t="s">
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="71" t="s">
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="52" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="68" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -964,7 +964,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="72"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -973,7 +973,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="68"/>
+      <c r="W6" s="60"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -982,15 +982,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="70"/>
+      <c r="AF6" s="65"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="71"/>
+      <c r="AK6" s="52"/>
     </row>
     <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="60"/>
+      <c r="D7" s="68"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -1002,18 +1002,18 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="72"/>
+      <c r="N7" s="53"/>
       <c r="P7" s="40"/>
       <c r="R7" s="11"/>
       <c r="T7" s="40"/>
-      <c r="W7" s="68"/>
+      <c r="W7" s="60"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="70"/>
+      <c r="AF7" s="65"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="71"/>
+      <c r="AK7" s="52"/>
     </row>
     <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="69" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1025,19 +1025,19 @@
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="72"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="68"/>
+      <c r="W8" s="60"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="70"/>
+      <c r="AF8" s="65"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="71"/>
+      <c r="AK8" s="52"/>
     </row>
     <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="61"/>
+      <c r="D9" s="69"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1047,19 +1047,19 @@
       <c r="I9" s="11"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="72"/>
+      <c r="N9" s="53"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
       <c r="T9" s="34"/>
-      <c r="W9" s="68"/>
+      <c r="W9" s="60"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="70"/>
+      <c r="AF9" s="65"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="71"/>
+      <c r="AK9" s="52"/>
     </row>
     <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1069,7 +1069,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="72"/>
+      <c r="N10" s="53"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -1077,19 +1077,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="68"/>
+      <c r="W10" s="60"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AF10" s="70"/>
+      <c r="AF10" s="65"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="71"/>
+      <c r="AK10" s="52"/>
     </row>
     <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="62"/>
+      <c r="D11" s="70"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1097,23 +1097,23 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="72"/>
+      <c r="N11" s="53"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="11"/>
       <c r="S11" s="47"/>
       <c r="U11" s="47"/>
-      <c r="W11" s="68"/>
+      <c r="W11" s="60"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
       <c r="AA11" s="51"/>
-      <c r="AF11" s="70"/>
+      <c r="AF11" s="65"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="71"/>
+      <c r="AK11" s="52"/>
     </row>
     <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="66" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1123,27 +1123,26 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="72"/>
+      <c r="N12" s="53"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="68"/>
+      <c r="W12" s="60"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="70"/>
+      <c r="AF12" s="65"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="71"/>
+      <c r="AK12" s="52"/>
     </row>
     <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="63"/>
+      <c r="D13" s="66"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1151,20 +1150,20 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="72"/>
+      <c r="N13" s="53"/>
       <c r="R13" s="44"/>
       <c r="S13" s="48"/>
-      <c r="W13" s="68"/>
+      <c r="W13" s="60"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
       <c r="AA13" s="44"/>
-      <c r="AF13" s="70"/>
+      <c r="AF13" s="65"/>
       <c r="AH13" s="10"/>
-      <c r="AK13" s="71"/>
+      <c r="AK13" s="52"/>
     </row>
     <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1174,24 +1173,23 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="72"/>
+      <c r="N14" s="53"/>
       <c r="R14" s="11"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="68"/>
+      <c r="W14" s="60"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
-      <c r="AC14" s="25"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="70"/>
+      <c r="AF14" s="65"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="71"/>
+      <c r="AK14" s="52"/>
     </row>
     <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="52"/>
+      <c r="D15" s="71"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1199,19 +1197,19 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="72"/>
+      <c r="N15" s="53"/>
       <c r="R15" s="11"/>
       <c r="T15" s="50"/>
       <c r="U15" s="50"/>
-      <c r="W15" s="68"/>
+      <c r="W15" s="60"/>
       <c r="Y15" s="50"/>
       <c r="AA15" s="11"/>
-      <c r="AF15" s="70"/>
+      <c r="AF15" s="65"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="71"/>
+      <c r="AK15" s="52"/>
     </row>
     <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="72" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1221,17 +1219,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="72"/>
+      <c r="N16" s="53"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="68"/>
+      <c r="W16" s="60"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="70"/>
+      <c r="AF16" s="65"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="71"/>
+      <c r="AK16" s="52"/>
     </row>
     <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="53"/>
+      <c r="D17" s="72"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1239,16 +1237,16 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="72"/>
+      <c r="N17" s="53"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="68"/>
+      <c r="W17" s="60"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="70"/>
+      <c r="AF17" s="65"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="71"/>
+      <c r="AK17" s="52"/>
     </row>
     <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="73" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1258,26 +1256,26 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="72"/>
+      <c r="N18" s="53"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="68"/>
+      <c r="W18" s="60"/>
       <c r="X18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="22"/>
       <c r="AD18" s="22"/>
       <c r="AE18" s="22"/>
-      <c r="AF18" s="70"/>
+      <c r="AF18" s="65"/>
       <c r="AG18" s="22"/>
       <c r="AH18" s="22"/>
-      <c r="AK18" s="71"/>
+      <c r="AK18" s="52"/>
     </row>
     <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="54"/>
+      <c r="D19" s="73"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1285,18 +1283,18 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="72"/>
+      <c r="N19" s="53"/>
       <c r="P19" s="43"/>
       <c r="R19" s="46"/>
       <c r="T19" s="49"/>
-      <c r="W19" s="68"/>
+      <c r="W19" s="60"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="70"/>
+      <c r="AF19" s="65"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="71"/>
+      <c r="AK19" s="52"/>
     </row>
     <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="74" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1310,26 +1308,26 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="72"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="68"/>
+      <c r="W20" s="60"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
-      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="70"/>
+      <c r="AF20" s="65"/>
       <c r="AH20" s="13"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="71"/>
+      <c r="AK20" s="52"/>
     </row>
     <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="55"/>
+      <c r="D21" s="74"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1341,20 +1339,20 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="72"/>
+      <c r="N21" s="53"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
-      <c r="W21" s="68"/>
+      <c r="W21" s="60"/>
       <c r="AA21" s="39"/>
-      <c r="AF21" s="70"/>
+      <c r="AF21" s="65"/>
       <c r="AH21" s="10"/>
-      <c r="AK21" s="71"/>
+      <c r="AK21" s="52"/>
     </row>
     <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="75" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1365,16 +1363,16 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="72"/>
+      <c r="N22" s="53"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="68"/>
+      <c r="W22" s="60"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="70"/>
+      <c r="AF22" s="65"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="71"/>
+      <c r="AK22" s="52"/>
     </row>
     <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="56"/>
+      <c r="D23" s="75"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
@@ -1383,72 +1381,79 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="72"/>
+      <c r="N23" s="53"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="68"/>
+      <c r="W23" s="60"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="70"/>
+      <c r="AF23" s="65"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="71"/>
+      <c r="AK23" s="52"/>
     </row>
     <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="73" t="s">
+      <c r="F24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75" t="s">
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="O24" s="73" t="s">
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="O24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="75" t="s">
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-      <c r="X24" s="73" t="s">
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="X24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="74"/>
-      <c r="AB24" s="75" t="s">
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="73" t="s">
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="74"/>
-      <c r="AK24" s="71"/>
+      <c r="AH24" s="54"/>
+      <c r="AI24" s="54"/>
+      <c r="AJ24" s="55"/>
+      <c r="AK24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AK5:AK24"/>
-    <mergeCell ref="N5:N23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="X24:AA24"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AG24:AJ24"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="X4:AE4"/>
     <mergeCell ref="O4:V4"/>
     <mergeCell ref="W5:W23"/>
@@ -1460,23 +1465,16 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AF5:AF24"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="AK5:AK24"/>
+    <mergeCell ref="N5:N23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="X24:AA24"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="U5:V5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/doc/Projektplan.xlsx
+++ b/doc/Projektplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>KW 48</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Iteration 2</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -167,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +332,12 @@
       <patternFill patternType="lightUp">
         <fgColor theme="0"/>
         <bgColor theme="5" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFE111F7"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +376,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +451,8 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -818,7 +823,7 @@
   <dimension ref="D3:AK24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD38" sqref="AD38"/>
+      <selection activeCell="D4" sqref="D4:AK24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,131 +831,128 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="37" width="6.85546875" customWidth="1"/>
+    <col min="6" max="37" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="32"/>
-      <c r="AH3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="4:37" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="58" t="s">
+      <c r="X4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58"/>
-      <c r="AE4" s="58"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
       <c r="AF4" s="7"/>
-      <c r="AG4" s="61" t="s">
+      <c r="AG4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
       <c r="AK4" s="12"/>
     </row>
-    <row r="5" spans="4:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:37" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="64" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64" t="s">
+      <c r="I5" s="65"/>
+      <c r="J5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="57" t="s">
+      <c r="K5" s="65"/>
+      <c r="L5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="53" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64" t="s">
+      <c r="P5" s="65"/>
+      <c r="Q5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64" t="s">
+      <c r="R5" s="65"/>
+      <c r="S5" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="57" t="s">
+      <c r="T5" s="65"/>
+      <c r="U5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="60" t="s">
+      <c r="V5" s="59"/>
+      <c r="W5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="62" t="s">
+      <c r="X5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="63"/>
-      <c r="Z5" s="64" t="s">
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="64" t="s">
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="57" t="s">
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="65" t="s">
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="62" t="s">
+      <c r="AG5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="57" t="s">
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="52" t="s">
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="4:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="68" t="s">
+    <row r="6" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="70" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
@@ -964,7 +966,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="53"/>
+      <c r="N6" s="55"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="1"/>
@@ -973,7 +975,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="60"/>
+      <c r="W6" s="62"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -982,15 +984,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="65"/>
+      <c r="AF6" s="67"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="52"/>
-    </row>
-    <row r="7" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="68"/>
+      <c r="AK6" s="54"/>
+    </row>
+    <row r="7" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="70"/>
       <c r="E7" t="s">
         <v>27</v>
       </c>
@@ -1002,18 +1004,18 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
-      <c r="N7" s="53"/>
+      <c r="N7" s="55"/>
       <c r="P7" s="40"/>
       <c r="R7" s="11"/>
       <c r="T7" s="40"/>
-      <c r="W7" s="60"/>
+      <c r="W7" s="62"/>
       <c r="AA7" s="11"/>
-      <c r="AF7" s="65"/>
+      <c r="AF7" s="67"/>
       <c r="AH7" s="10"/>
-      <c r="AK7" s="52"/>
-    </row>
-    <row r="8" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="69" t="s">
+      <c r="AK7" s="54"/>
+    </row>
+    <row r="8" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="71" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
@@ -1025,19 +1027,19 @@
       <c r="I8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="53"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="18"/>
-      <c r="W8" s="60"/>
+      <c r="W8" s="62"/>
       <c r="AA8" s="11"/>
-      <c r="AF8" s="65"/>
+      <c r="AF8" s="67"/>
       <c r="AH8" s="10"/>
-      <c r="AK8" s="52"/>
-    </row>
-    <row r="9" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="69"/>
+      <c r="AK8" s="54"/>
+    </row>
+    <row r="9" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="71"/>
       <c r="E9" t="s">
         <v>27</v>
       </c>
@@ -1047,19 +1049,19 @@
       <c r="I9" s="11"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="55"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="11"/>
       <c r="T9" s="34"/>
-      <c r="W9" s="60"/>
+      <c r="W9" s="62"/>
       <c r="AA9" s="11"/>
-      <c r="AF9" s="65"/>
+      <c r="AF9" s="67"/>
       <c r="AH9" s="10"/>
-      <c r="AK9" s="52"/>
-    </row>
-    <row r="10" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="70" t="s">
+      <c r="AK9" s="54"/>
+    </row>
+    <row r="10" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
@@ -1069,7 +1071,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="11"/>
-      <c r="N10" s="53"/>
+      <c r="N10" s="55"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
       <c r="R10" s="21"/>
@@ -1077,19 +1079,19 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-      <c r="W10" s="60"/>
+      <c r="W10" s="62"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AF10" s="65"/>
+      <c r="AC10" s="20"/>
+      <c r="AF10" s="67"/>
       <c r="AH10" s="10"/>
-      <c r="AK10" s="52"/>
-    </row>
-    <row r="11" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D11" s="70"/>
+      <c r="AK10" s="54"/>
+    </row>
+    <row r="11" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="72"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
@@ -1097,23 +1099,25 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="11"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="55"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="11"/>
       <c r="S11" s="47"/>
       <c r="U11" s="47"/>
-      <c r="W11" s="60"/>
+      <c r="W11" s="62"/>
       <c r="X11" s="47"/>
       <c r="Y11" s="47"/>
       <c r="Z11" s="47"/>
       <c r="AA11" s="51"/>
-      <c r="AF11" s="65"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AF11" s="67"/>
       <c r="AH11" s="10"/>
-      <c r="AK11" s="52"/>
-    </row>
-    <row r="12" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="66" t="s">
+      <c r="AK11" s="54"/>
+    </row>
+    <row r="12" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="68" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
@@ -1123,26 +1127,27 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11"/>
-      <c r="N12" s="53"/>
+      <c r="N12" s="55"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="24"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
-      <c r="W12" s="60"/>
+      <c r="W12" s="62"/>
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
       <c r="AD12" s="23"/>
       <c r="AE12" s="23"/>
-      <c r="AF12" s="65"/>
+      <c r="AF12" s="67"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="29"/>
-      <c r="AK12" s="52"/>
-    </row>
-    <row r="13" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="66"/>
+      <c r="AK12" s="54"/>
+    </row>
+    <row r="13" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="68"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -1150,20 +1155,24 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="11"/>
-      <c r="N13" s="53"/>
+      <c r="N13" s="55"/>
       <c r="R13" s="44"/>
       <c r="S13" s="48"/>
-      <c r="W13" s="60"/>
+      <c r="W13" s="62"/>
       <c r="X13" s="48"/>
       <c r="Y13" s="48"/>
       <c r="Z13" s="48"/>
       <c r="AA13" s="44"/>
-      <c r="AF13" s="65"/>
-      <c r="AH13" s="10"/>
-      <c r="AK13" s="52"/>
-    </row>
-    <row r="14" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="71" t="s">
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="67"/>
+      <c r="AH13" s="48"/>
+      <c r="AK13" s="54"/>
+    </row>
+    <row r="14" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
@@ -1173,23 +1182,23 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="55"/>
       <c r="R14" s="11"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
-      <c r="W14" s="60"/>
+      <c r="W14" s="62"/>
       <c r="Y14" s="25"/>
       <c r="AA14" s="26"/>
+      <c r="AC14" s="26"/>
       <c r="AE14" s="25"/>
-      <c r="AF14" s="65"/>
-      <c r="AG14" s="25"/>
+      <c r="AF14" s="67"/>
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
-      <c r="AK14" s="52"/>
-    </row>
-    <row r="15" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D15" s="71"/>
+      <c r="AK14" s="54"/>
+    </row>
+    <row r="15" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="73"/>
       <c r="E15" t="s">
         <v>27</v>
       </c>
@@ -1197,19 +1206,22 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11"/>
-      <c r="N15" s="53"/>
+      <c r="N15" s="55"/>
       <c r="R15" s="11"/>
       <c r="T15" s="50"/>
       <c r="U15" s="50"/>
-      <c r="W15" s="60"/>
+      <c r="W15" s="62"/>
       <c r="Y15" s="50"/>
-      <c r="AA15" s="11"/>
-      <c r="AF15" s="65"/>
+      <c r="AA15" s="53"/>
+      <c r="AC15" s="50"/>
+      <c r="AE15" s="50"/>
+      <c r="AF15" s="67"/>
       <c r="AH15" s="10"/>
-      <c r="AK15" s="52"/>
-    </row>
-    <row r="16" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D16" s="72" t="s">
+      <c r="AI15" s="50"/>
+      <c r="AK15" s="54"/>
+    </row>
+    <row r="16" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="74" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1219,17 +1231,17 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="N16" s="53"/>
+      <c r="N16" s="55"/>
       <c r="R16" s="11"/>
-      <c r="W16" s="60"/>
+      <c r="W16" s="62"/>
       <c r="AA16" s="11"/>
-      <c r="AF16" s="65"/>
+      <c r="AF16" s="67"/>
       <c r="AH16" s="10"/>
       <c r="AJ16" s="28"/>
-      <c r="AK16" s="52"/>
-    </row>
-    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17" s="72"/>
+      <c r="AK16" s="54"/>
+    </row>
+    <row r="17" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="74"/>
       <c r="E17" t="s">
         <v>27</v>
       </c>
@@ -1237,16 +1249,17 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
-      <c r="N17" s="53"/>
+      <c r="N17" s="55"/>
       <c r="R17" s="11"/>
-      <c r="W17" s="60"/>
+      <c r="W17" s="62"/>
       <c r="AA17" s="11"/>
-      <c r="AF17" s="65"/>
+      <c r="AF17" s="67"/>
       <c r="AH17" s="10"/>
-      <c r="AK17" s="52"/>
-    </row>
-    <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18" s="73" t="s">
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="54"/>
+    </row>
+    <row r="18" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E18" t="s">
@@ -1256,26 +1269,19 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="11"/>
-      <c r="N18" s="53"/>
+      <c r="N18" s="55"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="30"/>
       <c r="S18" s="22"/>
       <c r="U18" s="22"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="22"/>
-      <c r="Z18" s="22"/>
+      <c r="W18" s="62"/>
       <c r="AA18" s="11"/>
-      <c r="AB18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AK18" s="52"/>
-    </row>
-    <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19" s="73"/>
+      <c r="AF18" s="67"/>
+      <c r="AK18" s="54"/>
+    </row>
+    <row r="19" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="75"/>
       <c r="E19" t="s">
         <v>27</v>
       </c>
@@ -1283,18 +1289,19 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
-      <c r="N19" s="53"/>
+      <c r="N19" s="55"/>
       <c r="P19" s="43"/>
       <c r="R19" s="46"/>
       <c r="T19" s="49"/>
-      <c r="W19" s="60"/>
+      <c r="W19" s="62"/>
+      <c r="Z19" s="49"/>
       <c r="AA19" s="11"/>
-      <c r="AF19" s="65"/>
+      <c r="AF19" s="67"/>
       <c r="AH19" s="10"/>
-      <c r="AK19" s="52"/>
-    </row>
-    <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20" s="74" t="s">
+      <c r="AK19" s="54"/>
+    </row>
+    <row r="20" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="76" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
@@ -1308,26 +1315,25 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="53"/>
+      <c r="N20" s="55"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="14"/>
       <c r="T20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="W20" s="60"/>
+      <c r="W20" s="62"/>
       <c r="Y20" s="15"/>
       <c r="AA20" s="14"/>
-      <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
-      <c r="AF20" s="65"/>
-      <c r="AH20" s="13"/>
+      <c r="AF20" s="67"/>
+      <c r="AH20" s="10"/>
       <c r="AI20" s="15"/>
       <c r="AJ20" s="15"/>
-      <c r="AK20" s="52"/>
-    </row>
-    <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21" s="74"/>
+      <c r="AK20" s="54"/>
+    </row>
+    <row r="21" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="76"/>
       <c r="E21" t="s">
         <v>27</v>
       </c>
@@ -1339,20 +1345,23 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="53"/>
+      <c r="N21" s="55"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="11"/>
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
-      <c r="W21" s="60"/>
+      <c r="W21" s="62"/>
       <c r="AA21" s="39"/>
-      <c r="AF21" s="65"/>
-      <c r="AH21" s="10"/>
-      <c r="AK21" s="52"/>
-    </row>
-    <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22" s="75" t="s">
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="67"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="54"/>
+    </row>
+    <row r="22" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="77" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
@@ -1363,16 +1372,16 @@
       <c r="H22" s="10"/>
       <c r="I22" s="11"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="53"/>
+      <c r="N22" s="55"/>
       <c r="R22" s="11"/>
-      <c r="W22" s="60"/>
+      <c r="W22" s="62"/>
       <c r="AA22" s="11"/>
-      <c r="AF22" s="65"/>
+      <c r="AF22" s="67"/>
       <c r="AH22" s="10"/>
-      <c r="AK22" s="52"/>
-    </row>
-    <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23" s="75"/>
+      <c r="AK22" s="54"/>
+    </row>
+    <row r="23" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="77"/>
       <c r="E23" t="s">
         <v>27</v>
       </c>
@@ -1381,59 +1390,59 @@
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="M23" s="36"/>
-      <c r="N23" s="53"/>
+      <c r="N23" s="55"/>
       <c r="R23" s="11"/>
-      <c r="W23" s="60"/>
+      <c r="W23" s="62"/>
       <c r="AA23" s="11"/>
-      <c r="AF23" s="65"/>
+      <c r="AF23" s="67"/>
       <c r="AH23" s="10"/>
-      <c r="AK23" s="52"/>
-    </row>
-    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="F24" s="54" t="s">
+      <c r="AK23" s="54"/>
+    </row>
+    <row r="24" spans="4:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="O24" s="54" t="s">
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="O24" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56" t="s">
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="X24" s="54" t="s">
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="X24" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="56" t="s">
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="65"/>
-      <c r="AG24" s="54" t="s">
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="58"/>
+      <c r="AE24" s="58"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="52"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="38">
